--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H200_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.552870090634441</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9945652173913043</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5538922155688623</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7106796116504853</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5059880239520959</v>
+        <v>0.4940119760479042</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06451611780896517</v>
+        <v>0.06456680984940791</v>
       </c>
       <c r="J2" t="n">
-        <v>805.4433239569163</v>
+        <v>799.4933728283753</v>
       </c>
       <c r="K2" t="n">
-        <v>890363.91546152</v>
+        <v>790960.2020382108</v>
       </c>
       <c r="L2" t="n">
-        <v>943.5909683022194</v>
+        <v>889.3594335465334</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8348934721575662</v>
+        <v>0.8533266113414016</v>
       </c>
     </row>
   </sheetData>
